--- a/medicine/Psychotrope/Conseil_interprofessionnel_des_vins_d'Alsace/Conseil_interprofessionnel_des_vins_d'Alsace.xlsx
+++ b/medicine/Psychotrope/Conseil_interprofessionnel_des_vins_d'Alsace/Conseil_interprofessionnel_des_vins_d'Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseil_interprofessionnel_des_vins_d%27Alsace</t>
+          <t>Conseil_interprofessionnel_des_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conseil interprofessionnel des vins d'Alsace, communément abrégé CIVA, est l'organisme interprofessionnel de la filière viti-vinicole des vins AOC (Appellations d’origine contrôlée) d’Alsace. Il réunit plus de 950 opérateurs (caves particulières, coopératives, négociants). Il assure des missions économiques et techniques à la viticulture alsacienne, et de promotion, en France et à l'étranger, des vins recevant une AOC reconnue dans la région Alsace.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conseil_interprofessionnel_des_vins_d%27Alsace</t>
+          <t>Conseil_interprofessionnel_des_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>L'historique du CIVA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil interprofessionnel des vins d’Alsace (CIVA) a été institué par décret en date du 22 avril 1963[1]. Son champ d’activité couvrait à l’origine l’appellation d’origine contrôlée Alsace, reconnue par décret du 3 octobre 1962[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil interprofessionnel des vins d’Alsace (CIVA) a été institué par décret en date du 22 avril 1963. Son champ d’activité couvrait à l’origine l’appellation d’origine contrôlée Alsace, reconnue par décret du 3 octobre 1962.
 Il s’est étendu par la suite aux appellations alsace grand cru et crémant d’Alsace reconnues respectivement par décret du 20 novembre 1975 modifié en 1992[réf. nécessaire], et décret du 24 août 1976[réf. nécessaire].
-Ainsi le Comité interprofessionnel du vin d’Alsace tel qu’il était dénommé au départ est devenu par la suite Conseil interprofessionnel des vins d’Alsace, notamment pour tenir compte de la diversité des vins d’Alsace et de leurs appellations[3].
+Ainsi le Comité interprofessionnel du vin d’Alsace tel qu’il était dénommé au départ est devenu par la suite Conseil interprofessionnel des vins d’Alsace, notamment pour tenir compte de la diversité des vins d’Alsace et de leurs appellations.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conseil_interprofessionnel_des_vins_d%27Alsace</t>
+          <t>Conseil_interprofessionnel_des_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il perçoit, en 2010, des contributions volontaires obligatoires auprès des professionnels du secteur à hauteur de 7 898 000 euros[4].
-Le CIVA est membre de Vin et société[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il perçoit, en 2010, des contributions volontaires obligatoires auprès des professionnels du secteur à hauteur de 7 898 000 euros.
+Le CIVA est membre de Vin et société.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conseil_interprofessionnel_des_vins_d%27Alsace</t>
+          <t>Conseil_interprofessionnel_des_vins_d'Alsace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
